--- a/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
+++ b/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirvana/Desktop/Hust/2020A/组原课设/CO2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA45D1C7-6097-E944-A631-17713D7756EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C40011-35FF-8F4B-8C89-57B657B0F502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="460" windowWidth="28560" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5920" yWindow="460" windowWidth="25900" windowHeight="20680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="122">
   <si>
     <t>#</t>
   </si>
@@ -1548,12 +1548,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1566,11 +1560,27 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2093,8 +2103,8 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2212,19 +2222,19 @@
       <c r="AG1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="73" t="s">
+      <c r="AH1" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="AI1" s="73" t="s">
+      <c r="AI1" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="AJ1" s="73" t="s">
+      <c r="AJ1" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="AK1" s="73" t="s">
+      <c r="AK1" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AL1" s="73" t="s">
+      <c r="AL1" s="71" t="s">
         <v>121</v>
       </c>
       <c r="AM1" s="58" t="s">
@@ -2323,21 +2333,25 @@
         <f>IF(ISNUMBER($U2),IF(MOD($U2,2)&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="U2" s="70">
-        <v>0</v>
-      </c>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
+      <c r="U2" s="68">
+        <v>0</v>
+      </c>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
       <c r="AH2" s="61"/>
       <c r="AI2" s="61"/>
       <c r="AJ2" s="61"/>
@@ -2427,21 +2441,25 @@
         <f t="shared" ref="T3:T34" si="15">IF(ISNUMBER($U3),IF(MOD($U3,2)&gt;=1,1,0),"X")</f>
         <v>1</v>
       </c>
-      <c r="U3" s="71">
+      <c r="U3" s="69">
         <v>1</v>
       </c>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
       <c r="AH3" s="64"/>
       <c r="AI3" s="64"/>
       <c r="AJ3" s="64"/>
@@ -2531,21 +2549,25 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U4" s="72">
+      <c r="U4" s="70">
         <v>2</v>
       </c>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="23"/>
       <c r="AH4" s="61"/>
       <c r="AI4" s="61"/>
       <c r="AJ4" s="61"/>
@@ -2635,21 +2657,25 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U5" s="71">
+      <c r="U5" s="69">
         <v>5</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
       <c r="AH5" s="64"/>
       <c r="AI5" s="64"/>
       <c r="AJ5" s="64"/>
@@ -2739,21 +2765,25 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U6" s="72">
+      <c r="U6" s="70">
         <v>5</v>
       </c>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="23"/>
       <c r="AH6" s="61"/>
       <c r="AI6" s="61"/>
       <c r="AJ6" s="61"/>
@@ -2843,21 +2873,25 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U7" s="71">
+      <c r="U7" s="69">
         <v>6</v>
       </c>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
       <c r="AH7" s="64"/>
       <c r="AI7" s="64"/>
       <c r="AJ7" s="64"/>
@@ -2947,21 +2981,25 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U8" s="72">
+      <c r="U8" s="70">
         <v>7</v>
       </c>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="23"/>
       <c r="AH8" s="61"/>
       <c r="AI8" s="61"/>
       <c r="AJ8" s="61"/>
@@ -3051,21 +3089,25 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U9" s="71">
+      <c r="U9" s="69">
         <v>8</v>
       </c>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="63"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
       <c r="AH9" s="64"/>
       <c r="AI9" s="64"/>
       <c r="AJ9" s="64"/>
@@ -3155,21 +3197,25 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U10" s="72">
+      <c r="U10" s="70">
         <v>10</v>
       </c>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="23"/>
       <c r="AH10" s="61"/>
       <c r="AI10" s="61"/>
       <c r="AJ10" s="61"/>
@@ -3259,21 +3305,25 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U11" s="71">
+      <c r="U11" s="69">
         <v>11</v>
       </c>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
       <c r="AH11" s="64"/>
       <c r="AI11" s="64"/>
       <c r="AJ11" s="64"/>
@@ -3363,21 +3413,25 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U12" s="72">
+      <c r="U12" s="70">
         <v>12</v>
       </c>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="23"/>
       <c r="AH12" s="61"/>
       <c r="AI12" s="61"/>
       <c r="AJ12" s="61"/>
@@ -3467,21 +3521,27 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="U13" s="71" t="s">
+      <c r="U13" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="27"/>
       <c r="AH13" s="64"/>
       <c r="AI13" s="64"/>
       <c r="AJ13" s="64"/>
@@ -3571,21 +3631,25 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="U14" s="72" t="s">
+      <c r="U14" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="23"/>
       <c r="AH14" s="61"/>
       <c r="AI14" s="61"/>
       <c r="AJ14" s="61"/>
@@ -3675,21 +3739,23 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="U15" s="71" t="s">
+      <c r="U15" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="27"/>
       <c r="AH15" s="64"/>
       <c r="AI15" s="64"/>
       <c r="AJ15" s="64"/>
@@ -3779,21 +3845,27 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="U16" s="72" t="s">
+      <c r="U16" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="23">
+        <v>1</v>
+      </c>
       <c r="AH16" s="61"/>
       <c r="AI16" s="61"/>
       <c r="AJ16" s="61"/>
@@ -3883,21 +3955,23 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="U17" s="71" t="s">
+      <c r="U17" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
       <c r="AH17" s="64"/>
       <c r="AI17" s="64"/>
       <c r="AJ17" s="64"/>
@@ -3987,21 +4061,23 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="U18" s="72" t="s">
+      <c r="U18" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="23"/>
       <c r="AH18" s="61"/>
       <c r="AI18" s="61"/>
       <c r="AJ18" s="61"/>
@@ -4091,21 +4167,27 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U19" s="71">
+      <c r="U19" s="69">
         <v>5</v>
       </c>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
       <c r="AH19" s="64"/>
       <c r="AI19" s="64"/>
       <c r="AJ19" s="64"/>
@@ -4195,21 +4277,25 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U20" s="72">
+      <c r="U20" s="70">
         <v>7</v>
       </c>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="23"/>
       <c r="AH20" s="61"/>
       <c r="AI20" s="61"/>
       <c r="AJ20" s="61"/>
@@ -4299,21 +4385,27 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U21" s="71">
+      <c r="U21" s="69">
         <v>5</v>
       </c>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="63"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="63"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="63"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
       <c r="AH21" s="64"/>
       <c r="AI21" s="64"/>
       <c r="AJ21" s="64"/>
@@ -4403,21 +4495,27 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U22" s="72">
+      <c r="U22" s="70">
         <v>11</v>
       </c>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="23"/>
       <c r="AH22" s="61"/>
       <c r="AI22" s="61"/>
       <c r="AJ22" s="61"/>
@@ -4507,21 +4605,25 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U23" s="71">
+      <c r="U23" s="69">
         <v>8</v>
       </c>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
       <c r="AH23" s="64"/>
       <c r="AI23" s="64"/>
       <c r="AJ23" s="64"/>
@@ -4611,21 +4713,29 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U24" s="72">
+      <c r="U24" s="70">
         <v>5</v>
       </c>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="60"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="60"/>
-      <c r="AG24" s="60"/>
+      <c r="V24" s="35">
+        <v>1</v>
+      </c>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="23"/>
       <c r="AH24" s="61"/>
       <c r="AI24" s="61"/>
       <c r="AJ24" s="61"/>
@@ -4715,21 +4825,27 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U25" s="71">
+      <c r="U25" s="69">
         <v>5</v>
       </c>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27">
+        <v>1</v>
+      </c>
+      <c r="X25" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
       <c r="AH25" s="64"/>
       <c r="AI25" s="64"/>
       <c r="AJ25" s="64"/>
@@ -4749,86 +4865,98 @@
       <c r="B26" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="39" t="str">
+      <c r="C26" s="39">
+        <v>0</v>
+      </c>
+      <c r="D26" s="40">
+        <v>6</v>
+      </c>
+      <c r="E26" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="F26" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="G26" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="H26" s="39">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="I26" s="39">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="J26" s="39">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K26" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="K26" s="40">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L26" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M26" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="M26" s="40">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N26" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="N26" s="40">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O26" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="O26" s="40">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P26" s="25" t="str">
+        <v>1</v>
+      </c>
+      <c r="P26" s="25">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q26" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="33">
         <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="R26" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="R26" s="33">
         <f t="shared" si="13"/>
-        <v>X</v>
-      </c>
-      <c r="S26" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="S26" s="33">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="T26" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="T26" s="33">
         <f t="shared" si="15"/>
-        <v>X</v>
-      </c>
-      <c r="U26" s="59"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="59">
+        <v>2</v>
+      </c>
       <c r="V26" s="60"/>
       <c r="W26" s="60"/>
       <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
+      <c r="Y26" s="60">
+        <v>1</v>
+      </c>
       <c r="Z26" s="60"/>
       <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
+      <c r="AB26" s="60">
+        <v>1</v>
+      </c>
       <c r="AC26" s="60"/>
       <c r="AD26" s="60"/>
       <c r="AE26" s="60"/>
       <c r="AF26" s="60"/>
       <c r="AG26" s="60"/>
-      <c r="AH26" s="61"/>
+      <c r="AH26" s="61">
+        <v>1</v>
+      </c>
       <c r="AI26" s="61"/>
       <c r="AJ26" s="61"/>
       <c r="AK26" s="61"/>
@@ -4847,87 +4975,99 @@
       <c r="B27" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="53" t="str">
+      <c r="C27" s="46">
+        <v>0</v>
+      </c>
+      <c r="D27" s="47">
+        <v>7</v>
+      </c>
+      <c r="E27" s="53">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="F27" s="53">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="G27" s="53">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="I27" s="53">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="J27" s="53">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K27" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="K27" s="54">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L27" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="L27" s="54">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M27" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="M27" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N27" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="N27" s="54">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O27" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="O27" s="54">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P27" s="47" t="str">
+        <v>1</v>
+      </c>
+      <c r="P27" s="47">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q27" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="33">
         <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="R27" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="R27" s="33">
         <f t="shared" si="13"/>
-        <v>X</v>
-      </c>
-      <c r="S27" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="S27" s="33">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="T27" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="T27" s="33">
         <f t="shared" si="15"/>
-        <v>X</v>
-      </c>
-      <c r="U27" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="62">
+        <v>1</v>
+      </c>
       <c r="V27" s="63"/>
       <c r="W27" s="63"/>
       <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
+      <c r="Y27" s="63">
+        <v>1</v>
+      </c>
       <c r="Z27" s="63"/>
       <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
+      <c r="AB27" s="63">
+        <v>1</v>
+      </c>
       <c r="AC27" s="63"/>
       <c r="AD27" s="63"/>
       <c r="AE27" s="63"/>
       <c r="AF27" s="63"/>
       <c r="AG27" s="63"/>
       <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
+      <c r="AI27" s="64">
+        <v>1</v>
+      </c>
       <c r="AJ27" s="64"/>
       <c r="AK27" s="64"/>
       <c r="AL27" s="64"/>
@@ -4945,31 +5085,35 @@
       <c r="B28" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39" t="str">
+      <c r="C28" s="39">
+        <v>41</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="F28" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="G28" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H28" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="H28" s="39">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="I28" s="39">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K28" s="40" t="str">
         <f t="shared" si="6"/>
@@ -5011,13 +5155,21 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="U28" s="59"/>
+      <c r="U28" s="59" t="s">
+        <v>116</v>
+      </c>
       <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
+      <c r="W28" s="60">
+        <v>1</v>
+      </c>
+      <c r="X28" s="60">
+        <v>1</v>
+      </c>
       <c r="Y28" s="60"/>
       <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
+      <c r="AA28" s="60">
+        <v>1</v>
+      </c>
       <c r="AB28" s="60"/>
       <c r="AC28" s="60"/>
       <c r="AD28" s="60"/>
@@ -5026,7 +5178,9 @@
       <c r="AG28" s="60"/>
       <c r="AH28" s="61"/>
       <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
+      <c r="AJ28" s="61">
+        <v>1</v>
+      </c>
       <c r="AK28" s="61"/>
       <c r="AL28" s="61"/>
       <c r="AM28" s="61"/>
@@ -5043,31 +5197,35 @@
       <c r="B29" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="53" t="str">
+      <c r="C29" s="46">
+        <v>6</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="53">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="F29" s="53">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="G29" s="53">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H29" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="H29" s="53">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I29" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="I29" s="53">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J29" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="J29" s="53">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K29" s="54" t="str">
         <f t="shared" si="6"/>
@@ -5093,23 +5251,25 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q29" s="33" t="str">
+      <c r="Q29" s="33">
         <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="R29" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="R29" s="33">
         <f t="shared" si="13"/>
-        <v>X</v>
-      </c>
-      <c r="S29" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="S29" s="33">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="T29" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="T29" s="33">
         <f t="shared" si="15"/>
-        <v>X</v>
-      </c>
-      <c r="U29" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="U29" s="62">
+        <v>11</v>
+      </c>
       <c r="V29" s="63"/>
       <c r="W29" s="63"/>
       <c r="X29" s="63"/>
@@ -5125,7 +5285,9 @@
       <c r="AH29" s="64"/>
       <c r="AI29" s="64"/>
       <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
+      <c r="AK29" s="64">
+        <v>1</v>
+      </c>
       <c r="AL29" s="64"/>
       <c r="AM29" s="64"/>
       <c r="AN29" s="64"/>
@@ -5141,55 +5303,59 @@
       <c r="B30" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="39" t="str">
+      <c r="C30" s="39">
+        <v>16</v>
+      </c>
+      <c r="D30" s="40">
+        <v>24</v>
+      </c>
+      <c r="E30" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="F30" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="G30" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H30" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="H30" s="39">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I30" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="I30" s="39">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J30" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="J30" s="39">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K30" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="K30" s="40">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L30" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="L30" s="40">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M30" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="M30" s="40">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N30" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="N30" s="40">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O30" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="O30" s="40">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P30" s="25" t="str">
+        <v>0</v>
+      </c>
+      <c r="P30" s="25">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Q30" s="33" t="str">
         <f t="shared" si="12"/>
@@ -5207,7 +5373,9 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="U30" s="59"/>
+      <c r="U30" s="59" t="s">
+        <v>116</v>
+      </c>
       <c r="V30" s="60"/>
       <c r="W30" s="60"/>
       <c r="X30" s="60"/>
@@ -5224,7 +5392,9 @@
       <c r="AI30" s="61"/>
       <c r="AJ30" s="61"/>
       <c r="AK30" s="61"/>
-      <c r="AL30" s="61"/>
+      <c r="AL30" s="61">
+        <v>1</v>
+      </c>
       <c r="AM30" s="61"/>
       <c r="AN30" s="61"/>
       <c r="AO30" s="61"/>
@@ -8152,138 +8322,138 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="U1:AR1048576" name="区域2"/>
+    <protectedRange sqref="U1:AR1 U26:AR1048576 U2:U25 AH2:AR25" name="区域2"/>
     <protectedRange sqref="A1:D1048576" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="AM1">
+    <cfRule type="cellIs" priority="27" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN1">
     <cfRule type="cellIs" priority="26" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN1">
+  <conditionalFormatting sqref="V1:AG1 V62:AG1048576">
+    <cfRule type="cellIs" priority="39" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK62:AL1048576">
+    <cfRule type="cellIs" priority="33" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AL3">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2:AN3">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM62:AN1048576">
+    <cfRule type="cellIs" priority="30" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH62:AI1048576">
     <cfRule type="cellIs" priority="25" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:AG1 V62:AG1048576">
-    <cfRule type="cellIs" priority="38" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK62:AL1048576">
-    <cfRule type="cellIs" priority="32" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AL3">
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AN3">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM62:AN1048576">
-    <cfRule type="cellIs" priority="29" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH62:AI1048576">
-    <cfRule type="cellIs" priority="24" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AI3">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ3">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ62:AJ1048576">
-    <cfRule type="cellIs" priority="21" operator="notEqual">
+    <cfRule type="cellIs" priority="22" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:AG3">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="AQ1">
+    <cfRule type="cellIs" priority="11" operator="notEqual">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ1">
+  <conditionalFormatting sqref="AR1">
     <cfRule type="cellIs" priority="10" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR1">
-    <cfRule type="cellIs" priority="9" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AO1:AP1 AO62:AP1048576">
-    <cfRule type="cellIs" priority="16" operator="notEqual">
+    <cfRule type="cellIs" priority="17" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AP3">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AR3">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ62:AR1048576">
-    <cfRule type="cellIs" priority="13" operator="notEqual">
+    <cfRule type="cellIs" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AL61">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM4:AN61">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM4:AN61">
+  <conditionalFormatting sqref="AH4:AI61">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH4:AI61">
+  <conditionalFormatting sqref="AJ4:AJ61">
     <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4:AJ61">
+  <conditionalFormatting sqref="V26:AG61">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:AG61">
+  <conditionalFormatting sqref="AO4:AP61">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO4:AP61">
+  <conditionalFormatting sqref="AQ4:AR61">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ4:AR61">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="AH1:AL1">
+    <cfRule type="cellIs" priority="2" operator="notEqual">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AL1">
-    <cfRule type="cellIs" priority="1" operator="notEqual">
-      <formula>0</formula>
+  <conditionalFormatting sqref="V2:AG25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
@@ -8296,7 +8466,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="K1:P1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AH1:AR1048576 V1:AG1 V26:AG1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="V2:AG25" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="V2:AG25" xr:uid="{DC211387-752D-5548-84E5-62DF4BFC2C2F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP(十进制)" prompt="请输入当前指令的AluOp十进制编码，后续列会自动生成对应的二进制位，如不需要使用ALU可以输入&quot;X&quot;" sqref="U2:U25" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8311,9 +8481,9 @@
   </sheetPr>
   <dimension ref="A1:AX67"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK7" sqref="AK7"/>
+      <selection pane="bottomLeft" activeCell="AA73" sqref="AA73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -8597,7 +8767,7 @@
       </c>
       <c r="X2" s="31" t="str">
         <f>IF(真值表!Y2=1,$P2&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="Y2" s="31" t="str">
         <f>IF(真值表!Z2=1,$P2&amp;"+","")</f>
@@ -8609,7 +8779,7 @@
       </c>
       <c r="AA2" s="31" t="str">
         <f>IF(真值表!AB2=1,$P2&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AB2" s="31" t="str">
         <f>IF(真值表!AC2=1,$P2&amp;"+","")</f>
@@ -8771,7 +8941,7 @@
       </c>
       <c r="X3" s="51" t="str">
         <f>IF(真值表!Y3=1,$P3&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="Y3" s="51" t="str">
         <f>IF(真值表!Z3=1,$P3&amp;"+","")</f>
@@ -8783,7 +8953,7 @@
       </c>
       <c r="AA3" s="51" t="str">
         <f>IF(真值表!AB3=1,$P3&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AB3" s="51" t="str">
         <f>IF(真值表!AC3=1,$P3&amp;"+","")</f>
@@ -8945,7 +9115,7 @@
       </c>
       <c r="X4" s="31" t="str">
         <f>IF(真值表!Y4=1,$P4&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="Y4" s="31" t="str">
         <f>IF(真值表!Z4=1,$P4&amp;"+","")</f>
@@ -8957,7 +9127,7 @@
       </c>
       <c r="AA4" s="31" t="str">
         <f>IF(真值表!AB4=1,$P4&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AB4" s="31" t="str">
         <f>IF(真值表!AC4=1,$P4&amp;"+","")</f>
@@ -9119,7 +9289,7 @@
       </c>
       <c r="X5" s="51" t="str">
         <f>IF(真值表!Y5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="Y5" s="51" t="str">
         <f>IF(真值表!Z5=1,$P5&amp;"+","")</f>
@@ -9131,7 +9301,7 @@
       </c>
       <c r="AA5" s="51" t="str">
         <f>IF(真值表!AB5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AB5" s="51" t="str">
         <f>IF(真值表!AC5=1,$P5&amp;"+","")</f>
@@ -9293,7 +9463,7 @@
       </c>
       <c r="X6" s="31" t="str">
         <f>IF(真值表!Y6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="Y6" s="31" t="str">
         <f>IF(真值表!Z6=1,$P6&amp;"+","")</f>
@@ -9305,7 +9475,7 @@
       </c>
       <c r="AA6" s="31" t="str">
         <f>IF(真值表!AB6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AB6" s="31" t="str">
         <f>IF(真值表!AC6=1,$P6&amp;"+","")</f>
@@ -9467,7 +9637,7 @@
       </c>
       <c r="X7" s="51" t="str">
         <f>IF(真值表!Y7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="Y7" s="51" t="str">
         <f>IF(真值表!Z7=1,$P7&amp;"+","")</f>
@@ -9479,7 +9649,7 @@
       </c>
       <c r="AA7" s="51" t="str">
         <f>IF(真值表!AB7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AB7" s="51" t="str">
         <f>IF(真值表!AC7=1,$P7&amp;"+","")</f>
@@ -9641,7 +9811,7 @@
       </c>
       <c r="X8" s="31" t="str">
         <f>IF(真值表!Y8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="Y8" s="31" t="str">
         <f>IF(真值表!Z8=1,$P8&amp;"+","")</f>
@@ -9653,7 +9823,7 @@
       </c>
       <c r="AA8" s="31" t="str">
         <f>IF(真值表!AB8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AB8" s="31" t="str">
         <f>IF(真值表!AC8=1,$P8&amp;"+","")</f>
@@ -9815,7 +9985,7 @@
       </c>
       <c r="X9" s="51" t="str">
         <f>IF(真值表!Y9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="Y9" s="51" t="str">
         <f>IF(真值表!Z9=1,$P9&amp;"+","")</f>
@@ -9827,7 +9997,7 @@
       </c>
       <c r="AA9" s="51" t="str">
         <f>IF(真值表!AB9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AB9" s="51" t="str">
         <f>IF(真值表!AC9=1,$P9&amp;"+","")</f>
@@ -9989,7 +10159,7 @@
       </c>
       <c r="X10" s="31" t="str">
         <f>IF(真值表!Y10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="Y10" s="31" t="str">
         <f>IF(真值表!Z10=1,$P10&amp;"+","")</f>
@@ -10001,7 +10171,7 @@
       </c>
       <c r="AA10" s="31" t="str">
         <f>IF(真值表!AB10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AB10" s="31" t="str">
         <f>IF(真值表!AC10=1,$P10&amp;"+","")</f>
@@ -10163,7 +10333,7 @@
       </c>
       <c r="X11" s="51" t="str">
         <f>IF(真值表!Y11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="Y11" s="51" t="str">
         <f>IF(真值表!Z11=1,$P11&amp;"+","")</f>
@@ -10175,7 +10345,7 @@
       </c>
       <c r="AA11" s="51" t="str">
         <f>IF(真值表!AB11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AB11" s="51" t="str">
         <f>IF(真值表!AC11=1,$P11&amp;"+","")</f>
@@ -10337,7 +10507,7 @@
       </c>
       <c r="X12" s="31" t="str">
         <f>IF(真值表!Y12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="Y12" s="31" t="str">
         <f>IF(真值表!Z12=1,$P12&amp;"+","")</f>
@@ -10349,7 +10519,7 @@
       </c>
       <c r="AA12" s="31" t="str">
         <f>IF(真值表!AB12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AB12" s="31" t="str">
         <f>IF(真值表!AC12=1,$P12&amp;"+","")</f>
@@ -10523,7 +10693,7 @@
       </c>
       <c r="AA13" s="51" t="str">
         <f>IF(真值表!AB13=1,$P13&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AB13" s="51" t="str">
         <f>IF(真值表!AC13=1,$P13&amp;"+","")</f>
@@ -10535,11 +10705,11 @@
       </c>
       <c r="AD13" s="51" t="str">
         <f>IF(真值表!AE13=1,$P13&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AE13" s="51" t="str">
         <f>IF(真值表!AF13=1,$P13&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AF13" s="51" t="str">
         <f>IF(真值表!AG13=1,$P13&amp;"+","")</f>
@@ -10689,7 +10859,7 @@
       </c>
       <c r="Y14" s="31" t="str">
         <f>IF(真值表!Z14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="Z14" s="31" t="str">
         <f>IF(真值表!AA14=1,$P14&amp;"+","")</f>
@@ -10697,7 +10867,7 @@
       </c>
       <c r="AA14" s="31" t="str">
         <f>IF(真值表!AB14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AB14" s="31" t="str">
         <f>IF(真值表!AC14=1,$P14&amp;"+","")</f>
@@ -10887,7 +11057,7 @@
       </c>
       <c r="AE15" s="51" t="str">
         <f>IF(真值表!AF15=1,$P15&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AF15" s="51" t="str">
         <f>IF(真值表!AG15=1,$P15&amp;"+","")</f>
@@ -11033,7 +11203,7 @@
       </c>
       <c r="X16" s="31" t="str">
         <f>IF(真值表!Y16=1,$P16&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="Y16" s="31" t="str">
         <f>IF(真值表!Z16=1,$P16&amp;"+","")</f>
@@ -11061,11 +11231,11 @@
       </c>
       <c r="AE16" s="31" t="str">
         <f>IF(真值表!AF16=1,$P16&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AF16" s="31" t="str">
         <f>IF(真值表!AG16=1,$P16&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AG16" s="31" t="str">
         <f>IF(真值表!AH16=1,$P16&amp;"+","")</f>
@@ -11223,7 +11393,7 @@
       </c>
       <c r="AB17" s="51" t="str">
         <f>IF(真值表!AC17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AC17" s="51" t="str">
         <f>IF(真值表!AD17=1,$P17&amp;"+","")</f>
@@ -11401,7 +11571,7 @@
       </c>
       <c r="AC18" s="31" t="str">
         <f>IF(真值表!AD18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AD18" s="31" t="str">
         <f>IF(真值表!AE18=1,$P18&amp;"+","")</f>
@@ -11551,11 +11721,11 @@
       </c>
       <c r="W19" s="51" t="str">
         <f>IF(真值表!X19=1,$P19&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="X19" s="51" t="str">
         <f>IF(真值表!Y19=1,$P19&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="Y19" s="51" t="str">
         <f>IF(真值表!Z19=1,$P19&amp;"+","")</f>
@@ -11563,7 +11733,7 @@
       </c>
       <c r="Z19" s="51" t="str">
         <f>IF(真值表!AA19=1,$P19&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AA19" s="51" t="str">
         <f>IF(真值表!AB19=1,$P19&amp;"+","")</f>
@@ -11725,11 +11895,11 @@
       </c>
       <c r="W20" s="31" t="str">
         <f>IF(真值表!X20=1,$P20&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="X20" s="31" t="str">
         <f>IF(真值表!Y20=1,$P20&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="Y20" s="31" t="str">
         <f>IF(真值表!Z20=1,$P20&amp;"+","")</f>
@@ -11899,11 +12069,11 @@
       </c>
       <c r="W21" s="51" t="str">
         <f>IF(真值表!X21=1,$P21&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="X21" s="51" t="str">
         <f>IF(真值表!Y21=1,$P21&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="Y21" s="51" t="str">
         <f>IF(真值表!Z21=1,$P21&amp;"+","")</f>
@@ -11911,7 +12081,7 @@
       </c>
       <c r="Z21" s="51" t="str">
         <f>IF(真值表!AA21=1,$P21&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AA21" s="51" t="str">
         <f>IF(真值表!AB21=1,$P21&amp;"+","")</f>
@@ -12073,11 +12243,11 @@
       </c>
       <c r="W22" s="31" t="str">
         <f>IF(真值表!X22=1,$P22&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="X22" s="31" t="str">
         <f>IF(真值表!Y22=1,$P22&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="Y22" s="31" t="str">
         <f>IF(真值表!Z22=1,$P22&amp;"+","")</f>
@@ -12085,7 +12255,7 @@
       </c>
       <c r="Z22" s="31" t="str">
         <f>IF(真值表!AA22=1,$P22&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AA22" s="31" t="str">
         <f>IF(真值表!AB22=1,$P22&amp;"+","")</f>
@@ -12247,11 +12417,11 @@
       </c>
       <c r="W23" s="51" t="str">
         <f>IF(真值表!X23=1,$P23&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="X23" s="51" t="str">
         <f>IF(真值表!Y23=1,$P23&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="Y23" s="51" t="str">
         <f>IF(真值表!Z23=1,$P23&amp;"+","")</f>
@@ -12413,7 +12583,7 @@
       </c>
       <c r="U24" s="31" t="str">
         <f>IF(真值表!V24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="V24" s="31" t="str">
         <f>IF(真值表!W24=1,$P24&amp;"+","")</f>
@@ -12421,11 +12591,11 @@
       </c>
       <c r="W24" s="31" t="str">
         <f>IF(真值表!X24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="X24" s="31" t="str">
         <f>IF(真值表!Y24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="Y24" s="31" t="str">
         <f>IF(真值表!Z24=1,$P24&amp;"+","")</f>
@@ -12433,7 +12603,7 @@
       </c>
       <c r="Z24" s="31" t="str">
         <f>IF(真值表!AA24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AA24" s="31" t="str">
         <f>IF(真值表!AB24=1,$P24&amp;"+","")</f>
@@ -12591,11 +12761,11 @@
       </c>
       <c r="V25" s="51" t="str">
         <f>IF(真值表!W25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="W25" s="51" t="str">
         <f>IF(真值表!X25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="X25" s="51" t="str">
         <f>IF(真值表!Y25=1,$P25&amp;"+","")</f>
@@ -12607,7 +12777,7 @@
       </c>
       <c r="Z25" s="51" t="str">
         <f>IF(真值表!AA25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AA25" s="51" t="str">
         <f>IF(真值表!AB25=1,$P25&amp;"+","")</f>
@@ -12689,59 +12859,59 @@
       </c>
       <c r="C26" s="25">
         <f>真值表!D26</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="26" t="str">
         <f>IF(真值表!E26=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E26=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="E26" s="26" t="str">
         <f>IF(真值表!F26=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F26=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="F26" s="26" t="str">
         <f>IF(真值表!G26=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G26=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="G26" s="26" t="str">
         <f>IF(真值表!H26=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H26=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="H26" s="26" t="str">
         <f>IF(真值表!I26=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I26=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP1&amp;</v>
       </c>
       <c r="I26" s="26" t="str">
         <f>IF(真值表!J26=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J26=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP0&amp;</v>
       </c>
       <c r="J26" s="55" t="str">
         <f>IF(真值表!K26=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K26=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F5&amp;</v>
       </c>
       <c r="K26" s="55" t="str">
         <f>IF(真值表!L26=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L26=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F4&amp;</v>
       </c>
       <c r="L26" s="55" t="str">
         <f>IF(真值表!M26=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M26=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F3&amp;</v>
       </c>
       <c r="M26" s="55" t="str">
         <f>IF(真值表!N26=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N26=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F2&amp;</v>
       </c>
       <c r="N26" s="55" t="str">
         <f>IF(真值表!O26=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O26=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F1&amp;</v>
       </c>
       <c r="O26" s="55" t="str">
         <f>IF(真值表!P26=1," "&amp;真值表!P$1&amp;"&amp;",IF(真值表!P26=0,"~"&amp;真值表!P$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F0&amp;</v>
       </c>
       <c r="P26" s="29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0</v>
       </c>
       <c r="Q26" s="31" t="str">
         <f>IF(真值表!Q26=1,$P26&amp;"+","")</f>
@@ -12753,7 +12923,7 @@
       </c>
       <c r="S26" s="31" t="str">
         <f>IF(真值表!S26=1,$P26&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="T26" s="31" t="str">
         <f>IF(真值表!T26=1,$P26&amp;"+","")</f>
@@ -12773,7 +12943,7 @@
       </c>
       <c r="X26" s="31" t="str">
         <f>IF(真值表!Y26=1,$P26&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="Y26" s="31" t="str">
         <f>IF(真值表!Z26=1,$P26&amp;"+","")</f>
@@ -12785,7 +12955,7 @@
       </c>
       <c r="AA26" s="31" t="str">
         <f>IF(真值表!AB26=1,$P26&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AB26" s="31" t="str">
         <f>IF(真值表!AC26=1,$P26&amp;"+","")</f>
@@ -12809,7 +12979,7 @@
       </c>
       <c r="AG26" s="31" t="str">
         <f>IF(真值表!AH26=1,$P26&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AH26" s="31" t="str">
         <f>IF(真值表!AI26=1,$P26&amp;"+","")</f>
@@ -12863,59 +13033,59 @@
       </c>
       <c r="C27" s="47">
         <f>真值表!D27</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D27" s="48" t="str">
         <f>IF(真值表!E27=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E27=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="E27" s="48" t="str">
         <f>IF(真值表!F27=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F27=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="F27" s="48" t="str">
         <f>IF(真值表!G27=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G27=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="G27" s="48" t="str">
         <f>IF(真值表!H27=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H27=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="H27" s="48" t="str">
         <f>IF(真值表!I27=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I27=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP1&amp;</v>
       </c>
       <c r="I27" s="48" t="str">
         <f>IF(真值表!J27=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J27=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP0&amp;</v>
       </c>
       <c r="J27" s="49" t="str">
         <f>IF(真值表!K27=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K27=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F5&amp;</v>
       </c>
       <c r="K27" s="49" t="str">
         <f>IF(真值表!L27=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L27=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F4&amp;</v>
       </c>
       <c r="L27" s="49" t="str">
         <f>IF(真值表!M27=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M27=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F3&amp;</v>
       </c>
       <c r="M27" s="49" t="str">
         <f>IF(真值表!N27=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N27=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F2&amp;</v>
       </c>
       <c r="N27" s="49" t="str">
         <f>IF(真值表!O27=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O27=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F1&amp;</v>
       </c>
       <c r="O27" s="49" t="str">
         <f>IF(真值表!P27=1," "&amp;真值表!P$1&amp;"&amp;",IF(真值表!P27=0,"~"&amp;真值表!P$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F0&amp;</v>
       </c>
       <c r="P27" s="50" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="Q27" s="51" t="str">
         <f>IF(真值表!Q27=1,$P27&amp;"+","")</f>
@@ -12931,7 +13101,7 @@
       </c>
       <c r="T27" s="51" t="str">
         <f>IF(真值表!T27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="U27" s="51" t="str">
         <f>IF(真值表!V27=1,$P27&amp;"+","")</f>
@@ -12947,7 +13117,7 @@
       </c>
       <c r="X27" s="51" t="str">
         <f>IF(真值表!Y27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="Y27" s="51" t="str">
         <f>IF(真值表!Z27=1,$P27&amp;"+","")</f>
@@ -12959,7 +13129,7 @@
       </c>
       <c r="AA27" s="51" t="str">
         <f>IF(真值表!AB27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AB27" s="51" t="str">
         <f>IF(真值表!AC27=1,$P27&amp;"+","")</f>
@@ -12987,7 +13157,7 @@
       </c>
       <c r="AH27" s="51" t="str">
         <f>IF(真值表!AI27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AI27" s="51" t="str">
         <f>IF(真值表!AJ27=1,$P27&amp;"+","")</f>
@@ -13033,35 +13203,35 @@
       </c>
       <c r="B28" s="24">
         <f>真值表!C28</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="25">
+        <v>41</v>
+      </c>
+      <c r="C28" s="25" t="str">
         <f>真值表!D28</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D28" s="26" t="str">
         <f>IF(真值表!E28=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E28=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="E28" s="26" t="str">
         <f>IF(真值表!F28=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F28=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="F28" s="26" t="str">
         <f>IF(真值表!G28=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G28=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP3&amp;</v>
       </c>
       <c r="G28" s="26" t="str">
         <f>IF(真值表!H28=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H28=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="H28" s="26" t="str">
         <f>IF(真值表!I28=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I28=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP1&amp;</v>
       </c>
       <c r="I28" s="26" t="str">
         <f>IF(真值表!J28=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J28=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP0&amp;</v>
       </c>
       <c r="J28" s="55" t="str">
         <f>IF(真值表!K28=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K28=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
@@ -13089,7 +13259,7 @@
       </c>
       <c r="P28" s="29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="Q28" s="31" t="str">
         <f>IF(真值表!Q28=1,$P28&amp;"+","")</f>
@@ -13113,11 +13283,11 @@
       </c>
       <c r="V28" s="31" t="str">
         <f>IF(真值表!W28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="W28" s="31" t="str">
         <f>IF(真值表!X28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="X28" s="31" t="str">
         <f>IF(真值表!Y28=1,$P28&amp;"+","")</f>
@@ -13129,7 +13299,7 @@
       </c>
       <c r="Z28" s="31" t="str">
         <f>IF(真值表!AA28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AA28" s="31" t="str">
         <f>IF(真值表!AB28=1,$P28&amp;"+","")</f>
@@ -13165,7 +13335,7 @@
       </c>
       <c r="AI28" s="31" t="str">
         <f>IF(真值表!AJ28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AJ28" s="31" t="str">
         <f>IF(真值表!AK28=1,$P28&amp;"+","")</f>
@@ -13207,35 +13377,35 @@
       </c>
       <c r="B29" s="46">
         <f>真值表!C29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="47">
+        <v>6</v>
+      </c>
+      <c r="C29" s="47" t="str">
         <f>真值表!D29</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D29" s="48" t="str">
         <f>IF(真值表!E29=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E29=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="E29" s="48" t="str">
         <f>IF(真值表!F29=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F29=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="F29" s="48" t="str">
         <f>IF(真值表!G29=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G29=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="G29" s="48" t="str">
         <f>IF(真值表!H29=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H29=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP2&amp;</v>
       </c>
       <c r="H29" s="48" t="str">
         <f>IF(真值表!I29=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I29=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP1&amp;</v>
       </c>
       <c r="I29" s="48" t="str">
         <f>IF(真值表!J29=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J29=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP0&amp;</v>
       </c>
       <c r="J29" s="49" t="str">
         <f>IF(真值表!K29=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K29=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
@@ -13263,11 +13433,11 @@
       </c>
       <c r="P29" s="50" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="Q29" s="51" t="str">
         <f>IF(真值表!Q29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="R29" s="51" t="str">
         <f>IF(真值表!R29=1,$P29&amp;"+","")</f>
@@ -13275,11 +13445,11 @@
       </c>
       <c r="S29" s="51" t="str">
         <f>IF(真值表!S29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="T29" s="51" t="str">
         <f>IF(真值表!T29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="U29" s="51" t="str">
         <f>IF(真值表!V29=1,$P29&amp;"+","")</f>
@@ -13343,7 +13513,7 @@
       </c>
       <c r="AJ29" s="51" t="str">
         <f>IF(真值表!AK29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AK29" s="51" t="str">
         <f>IF(真值表!AL29=1,$P29&amp;"+","")</f>
@@ -13381,63 +13551,63 @@
       </c>
       <c r="B30" s="24">
         <f>真值表!C30</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C30" s="25">
         <f>真值表!D30</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D30" s="26" t="str">
         <f>IF(真值表!E30=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E30=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="E30" s="26" t="str">
         <f>IF(真值表!F30=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F30=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="F30" s="26" t="str">
         <f>IF(真值表!G30=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G30=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="G30" s="26" t="str">
         <f>IF(真值表!H30=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H30=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="H30" s="26" t="str">
         <f>IF(真值表!I30=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I30=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP1&amp;</v>
       </c>
       <c r="I30" s="26" t="str">
         <f>IF(真值表!J30=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J30=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP0&amp;</v>
       </c>
       <c r="J30" s="55" t="str">
         <f>IF(真值表!K30=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K30=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F5&amp;</v>
       </c>
       <c r="K30" s="55" t="str">
         <f>IF(真值表!L30=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L30=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F4&amp;</v>
       </c>
       <c r="L30" s="55" t="str">
         <f>IF(真值表!M30=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M30=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F3&amp;</v>
       </c>
       <c r="M30" s="55" t="str">
         <f>IF(真值表!N30=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N30=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F2&amp;</v>
       </c>
       <c r="N30" s="55" t="str">
         <f>IF(真值表!O30=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O30=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F1&amp;</v>
       </c>
       <c r="O30" s="55" t="str">
         <f>IF(真值表!P30=1," "&amp;真值表!P$1&amp;"&amp;",IF(真值表!P30=0,"~"&amp;真值表!P$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F0&amp;</v>
       </c>
       <c r="P30" s="29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~OP5&amp; OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp; F4&amp; F3&amp;~F2&amp;~F1&amp;~F0</v>
       </c>
       <c r="Q30" s="31" t="str">
         <f>IF(真值表!Q30=1,$P30&amp;"+","")</f>
@@ -13521,7 +13691,7 @@
       </c>
       <c r="AK30" s="31" t="str">
         <f>IF(真值表!AL30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp; OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp; F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL30" s="31" t="str">
         <f>IF(真值表!AM30=1,$P30&amp;"+","")</f>
@@ -18943,27 +19113,27 @@
       </c>
     </row>
     <row r="62" spans="1:50" ht="17">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
       <c r="Q62" s="34" t="str">
         <f t="shared" ref="Q62:AQ62" si="1">IF(LEN(Q63)&gt;1,LEFT(Q63,LEN(Q63)-1),"")</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="R62" s="34" t="str">
         <f t="shared" si="1"/>
@@ -18971,79 +19141,79 @@
       </c>
       <c r="S62" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="T62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="U62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="V62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="W62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="X62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="Y62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0</v>
       </c>
       <c r="Z62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="AA62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="AB62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0</v>
       </c>
       <c r="AC62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="AD62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0</v>
       </c>
       <c r="AE62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="AF62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="AG62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0</v>
       </c>
       <c r="AH62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="AI62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="AJ62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="AK62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp; OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp; F4&amp; F3&amp;~F2&amp;~F1&amp;~F0</v>
       </c>
       <c r="AL62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19074,7 +19244,7 @@
       <c r="Q63" t="str">
         <f t="shared" ref="Q63:AQ63" si="2">CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="R63" t="str">
         <f t="shared" si="2"/>
@@ -19082,79 +19252,79 @@
       </c>
       <c r="S63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="T63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="Y63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="Z63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AB63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AC63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AD63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AE63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AF63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AG63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AH63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AI63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AJ63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AK63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp; OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp; F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL63" t="str">
         <f t="shared" si="2"/>
@@ -19211,19 +19381,19 @@
       </c>
     </row>
     <row r="65" spans="18:32" ht="21">
-      <c r="V65" s="69" t="s">
+      <c r="V65" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="W65" s="69"/>
-      <c r="X65" s="69"/>
-      <c r="Y65" s="69"/>
-      <c r="Z65" s="69"/>
-      <c r="AA65" s="69"/>
-      <c r="AB65" s="69"/>
-      <c r="AC65" s="69"/>
-      <c r="AD65" s="69"/>
-      <c r="AE65" s="69"/>
-      <c r="AF65" s="69"/>
+      <c r="W65" s="73"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="73"/>
+      <c r="Z65" s="73"/>
+      <c r="AA65" s="73"/>
+      <c r="AB65" s="73"/>
+      <c r="AC65" s="73"/>
+      <c r="AD65" s="73"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73"/>
     </row>
     <row r="67" spans="18:32" ht="17">
       <c r="R67" s="37" t="s">
@@ -19237,22 +19407,22 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="P1 Q63:AX63 Q62:AQ62">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q64:AF64 Q68:AF1048576 Q67 S67:AF67 Q66:AF66 Q65:V65 Q2:AQ3 Q1:AK1">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG64:AJ1048576 AG1:AQ1">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:AQ61">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
